--- a/data/outputs/数学期刊(下)_altmetric/84Ukrainian Mathematical Journal.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/84Ukrainian Mathematical Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE142"/>
+  <dimension ref="A1:CF142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1017,6 +1022,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1248,6 +1256,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1489,6 +1500,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1724,6 +1738,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,6 +1972,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2194,6 +2214,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2433,6 +2456,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2662,6 +2688,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2903,6 +2932,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3140,6 +3172,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3369,6 +3404,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3602,6 +3640,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3835,6 +3876,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4074,6 +4118,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4309,6 +4356,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4546,6 +4596,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4779,6 +4832,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5008,6 +5064,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5241,6 +5300,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5474,6 +5536,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5707,6 +5772,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5936,6 +6004,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6165,6 +6236,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6394,6 +6468,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6623,6 +6700,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6856,6 +6936,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7089,6 +7172,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7322,6 +7408,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7555,6 +7644,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7794,6 +7886,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8029,6 +8124,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8262,6 +8360,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8495,6 +8596,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8724,6 +8828,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8963,6 +9070,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9202,6 +9312,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9439,6 +9552,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9668,6 +9784,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9897,6 +10016,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10138,6 +10260,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10377,6 +10502,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10612,6 +10740,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10863,6 +10994,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11098,6 +11232,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11329,6 +11466,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11566,6 +11706,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11807,6 +11950,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12054,6 +12200,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12285,6 +12434,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12518,6 +12670,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12751,6 +12906,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12980,6 +13138,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13219,6 +13380,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13450,6 +13614,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13687,6 +13854,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13916,6 +14086,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14145,6 +14318,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14392,6 +14568,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14631,6 +14810,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14866,6 +15048,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15101,6 +15286,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15338,6 +15526,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15571,6 +15762,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15800,6 +15994,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16047,6 +16244,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16278,6 +16478,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16507,6 +16710,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16750,6 +16956,9 @@
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16985,6 +17194,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17222,6 +17434,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17461,6 +17676,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17700,6 +17918,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17929,6 +18150,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18176,6 +18400,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18407,6 +18634,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18644,6 +18874,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -18883,6 +19116,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19114,6 +19350,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19343,6 +19582,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -19576,6 +19818,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -19805,6 +20050,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20044,6 +20292,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20271,6 +20522,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -20510,6 +20764,9 @@
         <v>0</v>
       </c>
       <c r="CE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20741,6 +20998,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -20980,6 +21240,9 @@
         <v>0</v>
       </c>
       <c r="CE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21211,6 +21474,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -21450,6 +21716,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21685,6 +21954,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -21914,6 +22186,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -22153,6 +22428,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22388,6 +22666,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -22627,6 +22908,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22858,6 +23142,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -23087,6 +23374,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -23320,6 +23610,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -23557,6 +23850,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -23798,6 +24094,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24033,6 +24332,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24272,6 +24574,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -24509,6 +24814,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -24746,6 +25054,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -24979,6 +25290,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -25212,6 +25526,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -25449,6 +25766,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -25686,6 +26006,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -25919,6 +26242,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -26156,6 +26482,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -26403,6 +26732,9 @@
         <v>0</v>
       </c>
       <c r="CE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26638,6 +26970,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -26871,6 +27206,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -27110,6 +27448,9 @@
         <v>0</v>
       </c>
       <c r="CE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27341,6 +27682,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -27574,6 +27918,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -27807,6 +28154,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -28040,6 +28390,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -28277,6 +28630,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -28510,6 +28866,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -28747,6 +29106,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -28980,6 +29342,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -29213,6 +29578,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -29442,6 +29810,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -29675,6 +30046,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -29904,6 +30278,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -30143,6 +30520,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30378,6 +30758,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -30611,6 +30994,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -30840,6 +31226,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -31069,6 +31458,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -31314,6 +31706,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -31553,6 +31948,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31788,6 +32186,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -32027,6 +32428,9 @@
         <v>0</v>
       </c>
       <c r="CE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32258,6 +32662,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -32495,6 +32902,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -32728,6 +33138,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -32957,6 +33370,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -33186,6 +33602,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -33415,6 +33834,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -33644,6 +34066,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -33885,6 +34310,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
